--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ccl11-Ccr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ccl11-Ccr2.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6658270000000001</v>
+        <v>0.264496</v>
       </c>
       <c r="H2">
-        <v>1.997481</v>
+        <v>0.793488</v>
       </c>
       <c r="I2">
-        <v>0.002619014661824084</v>
+        <v>0.001006353962629067</v>
       </c>
       <c r="J2">
-        <v>0.002619014661824084</v>
+        <v>0.001006353962629067</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>5.070171333333334</v>
+        <v>0.06166766666666667</v>
       </c>
       <c r="N2">
-        <v>15.210514</v>
+        <v>0.185003</v>
       </c>
       <c r="O2">
-        <v>0.9792094653973811</v>
+        <v>0.3189772891852935</v>
       </c>
       <c r="P2">
-        <v>0.9792094653973812</v>
+        <v>0.3189772891852935</v>
       </c>
       <c r="Q2">
-        <v>3.375856968359334</v>
+        <v>0.01631085116266667</v>
       </c>
       <c r="R2">
-        <v>30.382712715234</v>
+        <v>0.146797660464</v>
       </c>
       <c r="S2">
-        <v>0.002564563946872664</v>
+        <v>0.000321004058960298</v>
       </c>
       <c r="T2">
-        <v>0.002564563946872664</v>
+        <v>0.0003210040589602979</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6658270000000001</v>
+        <v>0.264496</v>
       </c>
       <c r="H3">
-        <v>1.997481</v>
+        <v>0.793488</v>
       </c>
       <c r="I3">
-        <v>0.002619014661824084</v>
+        <v>0.001006353962629067</v>
       </c>
       <c r="J3">
-        <v>0.002619014661824084</v>
+        <v>0.001006353962629067</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.234632</v>
       </c>
       <c r="O3">
-        <v>0.01510493828710314</v>
+        <v>0.4045463009579509</v>
       </c>
       <c r="P3">
-        <v>0.01510493828710314</v>
+        <v>0.4045463009579509</v>
       </c>
       <c r="Q3">
-        <v>0.05207477355466667</v>
+        <v>0.02068640849066667</v>
       </c>
       <c r="R3">
-        <v>0.468672961992</v>
+        <v>0.186177676416</v>
       </c>
       <c r="S3">
-        <v>3.956005483987108E-05</v>
+        <v>0.000407116773035965</v>
       </c>
       <c r="T3">
-        <v>3.956005483987109E-05</v>
+        <v>0.000407116773035965</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,46 +658,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6658270000000001</v>
+        <v>0.264496</v>
       </c>
       <c r="H4">
-        <v>1.997481</v>
+        <v>0.793488</v>
       </c>
       <c r="I4">
-        <v>0.002619014661824084</v>
+        <v>0.001006353962629067</v>
       </c>
       <c r="J4">
-        <v>0.002619014661824084</v>
+        <v>0.001006353962629067</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.029439</v>
+        <v>0.05345100000000001</v>
       </c>
       <c r="N4">
-        <v>0.08831699999999999</v>
+        <v>0.160353</v>
       </c>
       <c r="O4">
-        <v>0.005685596315515734</v>
+        <v>0.2764764098567557</v>
       </c>
       <c r="P4">
-        <v>0.005685596315515735</v>
+        <v>0.2764764098567557</v>
       </c>
       <c r="Q4">
-        <v>0.019601281053</v>
+        <v>0.014137575696</v>
       </c>
       <c r="R4">
-        <v>0.176411529477</v>
+        <v>0.127238181264</v>
       </c>
       <c r="S4">
-        <v>1.489066011154869E-05</v>
+        <v>0.0002782331306328042</v>
       </c>
       <c r="T4">
-        <v>1.48906601115487E-05</v>
+        <v>0.0002782331306328041</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,13 +723,13 @@
         <v>245.845932</v>
       </c>
       <c r="H5">
-        <v>737.5377960000001</v>
+        <v>737.537796</v>
       </c>
       <c r="I5">
-        <v>0.967029123868222</v>
+        <v>0.9353942133886188</v>
       </c>
       <c r="J5">
-        <v>0.9670291238682222</v>
+        <v>0.9353942133886189</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -738,28 +738,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>5.070171333333334</v>
+        <v>0.06166766666666667</v>
       </c>
       <c r="N5">
-        <v>15.210514</v>
+        <v>0.185003</v>
       </c>
       <c r="O5">
-        <v>0.9792094653973811</v>
+        <v>0.3189772891852935</v>
       </c>
       <c r="P5">
-        <v>0.9792094653973812</v>
+        <v>0.3189772891852935</v>
       </c>
       <c r="Q5">
-        <v>1246.480996843016</v>
+        <v>15.160744985932</v>
       </c>
       <c r="R5">
-        <v>11218.32897158715</v>
+        <v>136.446704873388</v>
       </c>
       <c r="S5">
-        <v>0.9469240714066995</v>
+        <v>0.2983695105063116</v>
       </c>
       <c r="T5">
-        <v>0.9469240714066998</v>
+        <v>0.2983695105063117</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>245.845932</v>
       </c>
       <c r="H6">
-        <v>737.5377960000001</v>
+        <v>737.537796</v>
       </c>
       <c r="I6">
-        <v>0.967029123868222</v>
+        <v>0.9353942133886188</v>
       </c>
       <c r="J6">
-        <v>0.9670291238682222</v>
+        <v>0.9353942133886189</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.234632</v>
       </c>
       <c r="O6">
-        <v>0.01510493828710314</v>
+        <v>0.4045463009579509</v>
       </c>
       <c r="P6">
-        <v>0.01510493828710314</v>
+        <v>0.4045463009579509</v>
       </c>
       <c r="Q6">
         <v>19.227774239008</v>
@@ -818,10 +818,10 @@
         <v>173.049968151072</v>
       </c>
       <c r="S6">
-        <v>0.01460691523786091</v>
+        <v>0.3784102689638379</v>
       </c>
       <c r="T6">
-        <v>0.01460691523786091</v>
+        <v>0.378410268963838</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,43 +847,43 @@
         <v>245.845932</v>
       </c>
       <c r="H7">
-        <v>737.5377960000001</v>
+        <v>737.537796</v>
       </c>
       <c r="I7">
-        <v>0.967029123868222</v>
+        <v>0.9353942133886188</v>
       </c>
       <c r="J7">
-        <v>0.9670291238682222</v>
+        <v>0.9353942133886189</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.029439</v>
+        <v>0.05345100000000001</v>
       </c>
       <c r="N7">
-        <v>0.08831699999999999</v>
+        <v>0.160353</v>
       </c>
       <c r="O7">
-        <v>0.005685596315515734</v>
+        <v>0.2764764098567557</v>
       </c>
       <c r="P7">
-        <v>0.005685596315515735</v>
+        <v>0.2764764098567557</v>
       </c>
       <c r="Q7">
-        <v>7.237458392148</v>
+        <v>13.140710911332</v>
       </c>
       <c r="R7">
-        <v>65.137125529332</v>
+        <v>118.266398201988</v>
       </c>
       <c r="S7">
-        <v>0.005498137223661571</v>
+        <v>0.2586144339184694</v>
       </c>
       <c r="T7">
-        <v>0.005498137223661574</v>
+        <v>0.2586144339184694</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.716294666666666</v>
+        <v>16.71558533333333</v>
       </c>
       <c r="H8">
-        <v>23.148884</v>
+        <v>50.146756</v>
       </c>
       <c r="I8">
-        <v>0.03035186146995387</v>
+        <v>0.06359943264875202</v>
       </c>
       <c r="J8">
-        <v>0.03035186146995388</v>
+        <v>0.06359943264875202</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -924,28 +924,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>5.070171333333334</v>
+        <v>0.06166766666666667</v>
       </c>
       <c r="N8">
-        <v>15.210514</v>
+        <v>0.185003</v>
       </c>
       <c r="O8">
-        <v>0.9792094653973811</v>
+        <v>0.3189772891852935</v>
       </c>
       <c r="P8">
-        <v>0.9792094653973812</v>
+        <v>0.3189772891852935</v>
       </c>
       <c r="Q8">
-        <v>39.12293601848622</v>
+        <v>1.030811144474222</v>
       </c>
       <c r="R8">
-        <v>352.106424166376</v>
+        <v>9.277300300267999</v>
       </c>
       <c r="S8">
-        <v>0.0297208300438089</v>
+        <v>0.02028677462002157</v>
       </c>
       <c r="T8">
-        <v>0.02972083004380891</v>
+        <v>0.02028677462002157</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.716294666666666</v>
+        <v>16.71558533333333</v>
       </c>
       <c r="H9">
-        <v>23.148884</v>
+        <v>50.146756</v>
       </c>
       <c r="I9">
-        <v>0.03035186146995387</v>
+        <v>0.06359943264875202</v>
       </c>
       <c r="J9">
-        <v>0.03035186146995388</v>
+        <v>0.06359943264875202</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,22 +992,22 @@
         <v>0.234632</v>
       </c>
       <c r="O9">
-        <v>0.01510493828710314</v>
+        <v>0.4045463009579509</v>
       </c>
       <c r="P9">
-        <v>0.01510493828710314</v>
+        <v>0.4045463009579509</v>
       </c>
       <c r="Q9">
-        <v>0.6034965500764444</v>
+        <v>1.307337072643556</v>
       </c>
       <c r="R9">
-        <v>5.431468950688</v>
+        <v>11.766033653792</v>
       </c>
       <c r="S9">
-        <v>0.0004584629944023568</v>
+        <v>0.02572891522107696</v>
       </c>
       <c r="T9">
-        <v>0.0004584629944023569</v>
+        <v>0.02572891522107696</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,46 +1030,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.716294666666666</v>
+        <v>16.71558533333333</v>
       </c>
       <c r="H10">
-        <v>23.148884</v>
+        <v>50.146756</v>
       </c>
       <c r="I10">
-        <v>0.03035186146995387</v>
+        <v>0.06359943264875202</v>
       </c>
       <c r="J10">
-        <v>0.03035186146995388</v>
+        <v>0.06359943264875202</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.029439</v>
+        <v>0.05345100000000001</v>
       </c>
       <c r="N10">
-        <v>0.08831699999999999</v>
+        <v>0.160353</v>
       </c>
       <c r="O10">
-        <v>0.005685596315515734</v>
+        <v>0.2764764098567557</v>
       </c>
       <c r="P10">
-        <v>0.005685596315515735</v>
+        <v>0.2764764098567557</v>
       </c>
       <c r="Q10">
-        <v>0.227159998692</v>
+        <v>0.8934647516520001</v>
       </c>
       <c r="R10">
-        <v>2.044439988228</v>
+        <v>8.041182764868001</v>
       </c>
       <c r="S10">
-        <v>0.0001725684317426137</v>
+        <v>0.01758374280765349</v>
       </c>
       <c r="T10">
-        <v>0.0001725684317426138</v>
+        <v>0.01758374280765349</v>
       </c>
     </row>
   </sheetData>
